--- a/sklearnNLP情感预测/matchDeliveryId/output.xlsx
+++ b/sklearnNLP情感预测/matchDeliveryId/output.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyTestDemo\NLP\Sklearn\sklearn\sklearnNLP情感预测\matchDeliveryId\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE087BA-E1CA-4C7C-B2F3-FFCA8D47837C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C0E85F-79D5-4225-A688-F9C9EF6127F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$101</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="589">
   <si>
     <t>deliveryId</t>
   </si>
@@ -52,7 +55,7 @@
     <t>equal</t>
   </si>
   <si>
-    <t>0.98182</t>
+    <t>0.98861</t>
   </si>
   <si>
     <t>ajacobson@barometercapital.ca</t>
@@ -70,7 +73,7 @@
     <t>PDG0012612</t>
   </si>
   <si>
-    <t>0.96358</t>
+    <t>0.98317</t>
   </si>
   <si>
     <t>alicia.aga@schoellerbank.at</t>
@@ -91,7 +94,7 @@
     <t>unequal</t>
   </si>
   <si>
-    <t>0.06357</t>
+    <t>0.13798</t>
   </si>
   <si>
     <t>amelie.dehant@kneip.com</t>
@@ -109,7 +112,7 @@
     <t>PDG0005875</t>
   </si>
   <si>
-    <t>0.97389</t>
+    <t>0.98779</t>
   </si>
   <si>
     <t>analytics@jadwa.com</t>
@@ -127,7 +130,7 @@
     <t>PDG0014849</t>
   </si>
   <si>
-    <t>0.83035</t>
+    <t>0.86544</t>
   </si>
   <si>
     <t>avanzafonder@avanza.se</t>
@@ -145,7 +148,7 @@
     <t>PDG0025477</t>
   </si>
   <si>
-    <t>0.97530</t>
+    <t>0.96703</t>
   </si>
   <si>
     <t>backoffice@titanium.fi</t>
@@ -163,7 +166,7 @@
     <t>PDG0017162</t>
   </si>
   <si>
-    <t>0.98916</t>
+    <t>0.99257</t>
   </si>
   <si>
     <t>bbh.pma.group@bbh.com</t>
@@ -178,10 +181,10 @@
     <t>pdn0004301</t>
   </si>
   <si>
-    <t>PDN0004464</t>
-  </si>
-  <si>
-    <t>0.87924</t>
+    <t>PDN0004301</t>
+  </si>
+  <si>
+    <t>0.71769</t>
   </si>
   <si>
     <t>beckyz@aims.com.au</t>
@@ -199,7 +202,7 @@
     <t>PDG0006237</t>
   </si>
   <si>
-    <t>0.86386</t>
+    <t>0.87670</t>
   </si>
   <si>
     <t>bellita.berney@bnymellon.com</t>
@@ -217,7 +220,7 @@
     <t>PDG0006717</t>
   </si>
   <si>
-    <t>0.97995</t>
+    <t>0.98552</t>
   </si>
   <si>
     <t>brett.barrington@aon.com</t>
@@ -235,7 +238,7 @@
     <t>PDN0004422</t>
   </si>
   <si>
-    <t>0.97202</t>
+    <t>0.98985</t>
   </si>
   <si>
     <t>btfgreports@btfinancialgroup.com</t>
@@ -253,7 +256,7 @@
     <t>PDG0019586</t>
   </si>
   <si>
-    <t>0.99676</t>
+    <t>0.99776</t>
   </si>
   <si>
     <t>c.foo@robeco.com</t>
@@ -268,10 +271,10 @@
     <t>pdg0028198</t>
   </si>
   <si>
-    <t>PDN0002772</t>
-  </si>
-  <si>
-    <t>0.10468</t>
+    <t>PDG0028198</t>
+  </si>
+  <si>
+    <t>0.28326</t>
   </si>
   <si>
     <t>christian.lumbye@velliv.dk</t>
@@ -289,7 +292,7 @@
     <t>PDN0002468</t>
   </si>
   <si>
-    <t>0.94404</t>
+    <t>0.95912</t>
   </si>
   <si>
     <t>cindy.koh@firststate.com.sg</t>
@@ -307,7 +310,7 @@
     <t>PDG0022891</t>
   </si>
   <si>
-    <t>0.98122</t>
+    <t>0.98808</t>
   </si>
   <si>
     <t>claudia.barthel@mstar.com</t>
@@ -325,7 +328,7 @@
     <t>PDG0017123</t>
   </si>
   <si>
-    <t>0.85637</t>
+    <t>0.85196</t>
   </si>
   <si>
     <t>clientservices-sg@amundi.com</t>
@@ -343,7 +346,7 @@
     <t>PDG0028177</t>
   </si>
   <si>
-    <t>0.39144</t>
+    <t>0.68633</t>
   </si>
   <si>
     <t>cmackin@mfs.com</t>
@@ -358,10 +361,10 @@
     <t>pdg0017746</t>
   </si>
   <si>
-    <t>PDG0017047</t>
-  </si>
-  <si>
-    <t>0.33006</t>
+    <t>PDG0008679</t>
+  </si>
+  <si>
+    <t>0.31621</t>
   </si>
   <si>
     <t>consuela.godefroy@kneip.com</t>
@@ -379,7 +382,7 @@
     <t>PDG0026631</t>
   </si>
   <si>
-    <t>0.99656</t>
+    <t>0.97582</t>
   </si>
   <si>
     <t>daniele2.gatti@posteitaliane.it</t>
@@ -394,10 +397,10 @@
     <t>pdn0001541</t>
   </si>
   <si>
-    <t>PDN0005245</t>
-  </si>
-  <si>
-    <t>0.51684</t>
+    <t>PDN0001541</t>
+  </si>
+  <si>
+    <t>0.43312</t>
   </si>
   <si>
     <t>dataserver.austria@amundi.com</t>
@@ -415,7 +418,7 @@
     <t>PDN0000186</t>
   </si>
   <si>
-    <t>0.67411</t>
+    <t>0.96902</t>
   </si>
   <si>
     <t>diffusions.vl@axa-im.com</t>
@@ -433,7 +436,7 @@
     <t>PDG0027475</t>
   </si>
   <si>
-    <t>0.99259</t>
+    <t>0.99566</t>
   </si>
   <si>
     <t>dmcnally@mfsadmin.com</t>
@@ -451,7 +454,7 @@
     <t>PDG0010909</t>
   </si>
   <si>
-    <t>0.95143</t>
+    <t>0.96365</t>
   </si>
   <si>
     <t>dublin.csg.nav.reports@bbh.com</t>
@@ -469,7 +472,7 @@
     <t>PDG0023889</t>
   </si>
   <si>
-    <t>0.99340</t>
+    <t>0.99199</t>
   </si>
   <si>
     <t>dxaup@rbc.com</t>
@@ -487,7 +490,7 @@
     <t>PDG0015257</t>
   </si>
   <si>
-    <t>0.74611</t>
+    <t>0.68472</t>
   </si>
   <si>
     <t>emelie.larsson@ikcfonder.se</t>
@@ -505,7 +508,7 @@
     <t>PDG0009694</t>
   </si>
   <si>
-    <t>0.98830</t>
+    <t>0.99292</t>
   </si>
   <si>
     <t>emilylimsc@phillip.com.sg</t>
@@ -520,10 +523,10 @@
     <t>pdg0028090</t>
   </si>
   <si>
-    <t>PDG0028083</t>
-  </si>
-  <si>
-    <t>0.28670</t>
+    <t>PDG0028096</t>
+  </si>
+  <si>
+    <t>0.29484</t>
   </si>
   <si>
     <t>ethil.he@morningstar.com</t>
@@ -541,7 +544,7 @@
     <t>PDG0011333</t>
   </si>
   <si>
-    <t>0.99474</t>
+    <t>0.99416</t>
   </si>
   <si>
     <t>evelyn.yeow@bmo.com</t>
@@ -559,7 +562,7 @@
     <t>PDG0022460</t>
   </si>
   <si>
-    <t>0.97269</t>
+    <t>0.98159</t>
   </si>
   <si>
     <t>fabio.fazio@bnpparibas.com</t>
@@ -577,7 +580,7 @@
     <t>PDG0012411</t>
   </si>
   <si>
-    <t>0.98961</t>
+    <t>0.99394</t>
   </si>
   <si>
     <t>fallison@harvestportfolios.com</t>
@@ -595,7 +598,7 @@
     <t>PDN0002081</t>
   </si>
   <si>
-    <t>0.96740</t>
+    <t>0.98105</t>
   </si>
   <si>
     <t>fion.qu@morningstar.com</t>
@@ -613,7 +616,7 @@
     <t>PDG0020095</t>
   </si>
   <si>
-    <t>0.06493</t>
+    <t>0.08900</t>
   </si>
   <si>
     <t>fredrik.sjostrand@kreditfonden.se</t>
@@ -631,63 +634,63 @@
     <t>PDN0008290</t>
   </si>
   <si>
+    <t>0.99577</t>
+  </si>
+  <si>
+    <t>fundaccountingops@rbc.com</t>
+  </si>
+  <si>
+    <t>beutel goodman month end fund pricing - june 2019</t>
+  </si>
+  <si>
+    <t>bg me fund pricing - june 2019.xls</t>
+  </si>
+  <si>
+    <t>pdg0028155</t>
+  </si>
+  <si>
+    <t>PDG0028155</t>
+  </si>
+  <si>
+    <t>0.98757</t>
+  </si>
+  <si>
+    <t>funds@mackand.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cts7571au  - tamim fund - asia small companies </t>
+  </si>
+  <si>
+    <t>price imd format.xlsx</t>
+  </si>
+  <si>
+    <t>pdg0013059</t>
+  </si>
+  <si>
+    <t>PDG0013059</t>
+  </si>
+  <si>
+    <t>0.99854</t>
+  </si>
+  <si>
+    <t>fundstation@bnymellon.com</t>
+  </si>
+  <si>
+    <t>legg mason global funds plc. (separate prospectus) daily nav file</t>
+  </si>
+  <si>
+    <t>lgdlynav_lmgf2_26-apr-19.xls</t>
+  </si>
+  <si>
+    <t>pdg0027851</t>
+  </si>
+  <si>
+    <t>PDG0027851</t>
+  </si>
+  <si>
     <t>0.99060</t>
   </si>
   <si>
-    <t>fundaccountingops@rbc.com</t>
-  </si>
-  <si>
-    <t>beutel goodman month end fund pricing - june 2019</t>
-  </si>
-  <si>
-    <t>bg me fund pricing - june 2019.xls</t>
-  </si>
-  <si>
-    <t>pdg0028155</t>
-  </si>
-  <si>
-    <t>PDG0028155</t>
-  </si>
-  <si>
-    <t>0.97942</t>
-  </si>
-  <si>
-    <t>funds@mackand.co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cts7571au  - tamim fund - asia small companies </t>
-  </si>
-  <si>
-    <t>price imd format.xlsx</t>
-  </si>
-  <si>
-    <t>pdg0013059</t>
-  </si>
-  <si>
-    <t>PDG0013059</t>
-  </si>
-  <si>
-    <t>0.98073</t>
-  </si>
-  <si>
-    <t>fundstation@bnymellon.com</t>
-  </si>
-  <si>
-    <t>legg mason global funds plc. (separate prospectus) daily nav file</t>
-  </si>
-  <si>
-    <t>lgdlynav_lmgf2_26-apr-19.xls</t>
-  </si>
-  <si>
-    <t>pdg0027851</t>
-  </si>
-  <si>
-    <t>PDG0027851</t>
-  </si>
-  <si>
-    <t>0.97933</t>
-  </si>
-  <si>
     <t>g.quispel@synvest.nl</t>
   </si>
   <si>
@@ -703,7 +706,7 @@
     <t>PDG0012333</t>
   </si>
   <si>
-    <t>0.94875</t>
+    <t>0.95862</t>
   </si>
   <si>
     <t>germain.zwering@robein.nl</t>
@@ -721,7 +724,7 @@
     <t>PDG0027326</t>
   </si>
   <si>
-    <t>0.99989</t>
+    <t>0.99998</t>
   </si>
   <si>
     <t>gla@mainstreamgroup.com</t>
@@ -736,10 +739,10 @@
     <t>pdn0001771</t>
   </si>
   <si>
-    <t>PDG0027955</t>
-  </si>
-  <si>
-    <t>0.64307</t>
+    <t>PDN0001771</t>
+  </si>
+  <si>
+    <t>0.25156</t>
   </si>
   <si>
     <t>hanna.yi@morningstar.com</t>
@@ -757,7 +760,7 @@
     <t>PDG0027824</t>
   </si>
   <si>
-    <t>0.83449</t>
+    <t>0.63476</t>
   </si>
   <si>
     <t>hsbc.corporate.money.funds.distribution@hsbc.com</t>
@@ -775,7 +778,7 @@
     <t>PDG0009265</t>
   </si>
   <si>
-    <t>0.99993</t>
+    <t>1.00000</t>
   </si>
   <si>
     <t>investor.relations@aspectcapital.com</t>
@@ -793,7 +796,7 @@
     <t>PDG0013351</t>
   </si>
   <si>
-    <t>0.99533</t>
+    <t>0.99322</t>
   </si>
   <si>
     <t>investorrelations@fmgfunds.com</t>
@@ -811,7 +814,7 @@
     <t>PDG0011625</t>
   </si>
   <si>
-    <t>0.90306</t>
+    <t>0.96070</t>
   </si>
   <si>
     <t>investorservices@maples.com</t>
@@ -826,10 +829,10 @@
     <t>pdn0007708</t>
   </si>
   <si>
-    <t>PDG0018384</t>
-  </si>
-  <si>
-    <t>0.43298</t>
+    <t>PDN0007708</t>
+  </si>
+  <si>
+    <t>0.84106</t>
   </si>
   <si>
     <t>27 june 2019 - the prosperity cub fund - nav</t>
@@ -844,7 +847,7 @@
     <t>PDG0014585</t>
   </si>
   <si>
-    <t>0.99507</t>
+    <t>0.99166</t>
   </si>
   <si>
     <t>jalila.mezoughi@citi.com</t>
@@ -862,7 +865,7 @@
     <t>PDN0007964</t>
   </si>
   <si>
-    <t>0.99418</t>
+    <t>0.99504</t>
   </si>
   <si>
     <t>jm551@ntrs.com</t>
@@ -880,7 +883,7 @@
     <t>PDG0005953</t>
   </si>
   <si>
-    <t>0.97868</t>
+    <t>0.98751</t>
   </si>
   <si>
     <t>john_ramsey@troweprice.com</t>
@@ -898,7 +901,7 @@
     <t>PDG0014118</t>
   </si>
   <si>
-    <t>0.97425</t>
+    <t>0.97008</t>
   </si>
   <si>
     <t>josh.cai@morningstar.com</t>
@@ -916,7 +919,7 @@
     <t>PDN0004305</t>
   </si>
   <si>
-    <t>0.98293</t>
+    <t>0.98855</t>
   </si>
   <si>
     <t>jwzhu@maple-brownabbott.com.au</t>
@@ -931,10 +934,10 @@
     <t>pdg0014577</t>
   </si>
   <si>
-    <t>PDG0013540</t>
-  </si>
-  <si>
-    <t>0.24228</t>
+    <t>PDG0006685</t>
+  </si>
+  <si>
+    <t>0.23505</t>
   </si>
   <si>
     <t>kheng@eqt.com.au</t>
@@ -952,7 +955,7 @@
     <t>PDN0004296</t>
   </si>
   <si>
-    <t>0.98646</t>
+    <t>0.99298</t>
   </si>
   <si>
     <t>lampclientreporting@lazard.com</t>
@@ -970,7 +973,7 @@
     <t>PDN0000196</t>
   </si>
   <si>
-    <t>0.95301</t>
+    <t>0.97483</t>
   </si>
   <si>
     <t>laura.blanco@arvest.ch</t>
@@ -988,7 +991,7 @@
     <t>PDG0023879</t>
   </si>
   <si>
-    <t>0.99475</t>
+    <t>0.99582</t>
   </si>
   <si>
     <t>lfm.valuations@bnymellon.com</t>
@@ -1006,7 +1009,7 @@
     <t>PDG0015785</t>
   </si>
   <si>
-    <t>0.98583</t>
+    <t>0.99086</t>
   </si>
   <si>
     <t>limkfateam6@ntrs.com</t>
@@ -1024,9 +1027,6 @@
     <t>PDG0019834</t>
   </si>
   <si>
-    <t>0.99281</t>
-  </si>
-  <si>
     <t>liveweb@statestreet.com</t>
   </si>
   <si>
@@ -1042,7 +1042,7 @@
     <t>PDN0002576</t>
   </si>
   <si>
-    <t>0.57346</t>
+    <t>0.54301</t>
   </si>
   <si>
     <t>lsolankova@abcfunds.com</t>
@@ -1060,7 +1060,7 @@
     <t>PDG0022302</t>
   </si>
   <si>
-    <t>0.96994</t>
+    <t>0.98497</t>
   </si>
   <si>
     <t>lys@egnsinvest.dk</t>
@@ -1078,7 +1078,7 @@
     <t>PDN0003723</t>
   </si>
   <si>
-    <t>0.98967</t>
+    <t>0.99047</t>
   </si>
   <si>
     <t>m&amp;g.feeders@jtcgroup.com</t>
@@ -1096,7 +1096,7 @@
     <t>PDG0028172</t>
   </si>
   <si>
-    <t>0.70307</t>
+    <t>0.94794</t>
   </si>
   <si>
     <t>mandyc@fundhost.com.au</t>
@@ -1111,7 +1111,7 @@
     <t>PDG0027171</t>
   </si>
   <si>
-    <t>0.93564</t>
+    <t>0.97437</t>
   </si>
   <si>
     <t>michaelcourtney@iisolutions.co.nz</t>
@@ -1129,7 +1129,7 @@
     <t>PDG0025123</t>
   </si>
   <si>
-    <t>0.59241</t>
+    <t>0.91701</t>
   </si>
   <si>
     <t>mjsait@statestreet.com</t>
@@ -1144,10 +1144,10 @@
     <t>pdg0028157</t>
   </si>
   <si>
-    <t>PDN0007372</t>
-  </si>
-  <si>
-    <t>0.37641</t>
+    <t>PDG0028157</t>
+  </si>
+  <si>
+    <t>0.14207</t>
   </si>
   <si>
     <t>mmcoperations@mmcnz.co.nz</t>
@@ -1165,7 +1165,7 @@
     <t>PDG0012555</t>
   </si>
   <si>
-    <t>0.95415</t>
+    <t>0.98579</t>
   </si>
   <si>
     <t>mohamed.rai@morningstar.com</t>
@@ -1183,7 +1183,7 @@
     <t>PDG0028181</t>
   </si>
   <si>
-    <t>0.93319</t>
+    <t>0.85716</t>
   </si>
   <si>
     <t>msegovia@catalanaoccidente.com</t>
@@ -1201,7 +1201,7 @@
     <t>PDG0021016</t>
   </si>
   <si>
-    <t>0.98941</t>
+    <t>0.99364</t>
   </si>
   <si>
     <t>namcrmsupport@nordea.com</t>
@@ -1219,7 +1219,7 @@
     <t>PDG0017629</t>
   </si>
   <si>
-    <t>0.77769</t>
+    <t>0.85770</t>
   </si>
   <si>
     <t>natascha.mendis@kiwiwealth.co.nz</t>
@@ -1234,7 +1234,7 @@
     <t>pdg0017629</t>
   </si>
   <si>
-    <t>0.95947</t>
+    <t>0.96044</t>
   </si>
   <si>
     <t>march 2019 kwks performance numbers</t>
@@ -1249,7 +1249,7 @@
     <t>PDG0009033</t>
   </si>
   <si>
-    <t>0.81306</t>
+    <t>0.84962</t>
   </si>
   <si>
     <t>nathalie.erlandssonfunke@enterfonder.se</t>
@@ -1267,7 +1267,7 @@
     <t>PDG0026367</t>
   </si>
   <si>
-    <t>0.67975</t>
+    <t>0.81777</t>
   </si>
   <si>
     <t>nav_reports@ntrs.com</t>
@@ -1285,7 +1285,7 @@
     <t>PDG0014797</t>
   </si>
   <si>
-    <t>0.98555</t>
+    <t>0.99233</t>
   </si>
   <si>
     <t>caleo glob balanced fund price file for 2019/06/26</t>
@@ -1300,7 +1300,7 @@
     <t>PDG0017562</t>
   </si>
   <si>
-    <t>0.98976</t>
+    <t>0.99546</t>
   </si>
   <si>
     <t>davy otus maga micro for 2019/06/28</t>
@@ -1315,7 +1315,7 @@
     <t>PDG0009643</t>
   </si>
   <si>
-    <t>0.98893</t>
+    <t>0.99410</t>
   </si>
   <si>
     <t>hadron alpha select fund for 2019/05/07</t>
@@ -1330,7 +1330,7 @@
     <t>PDG0018110</t>
   </si>
   <si>
-    <t>0.99339</t>
+    <t>0.99181</t>
   </si>
   <si>
     <t>redwood eur strategies for 2019/05/08</t>
@@ -1342,10 +1342,10 @@
     <t>pdg0020367</t>
   </si>
   <si>
-    <t>PDG0024039</t>
-  </si>
-  <si>
-    <t>0.79956</t>
+    <t>PDG0020367</t>
+  </si>
+  <si>
+    <t>0.52254</t>
   </si>
   <si>
     <t>ronit global opportunities fund for 2019/04/17</t>
@@ -1360,7 +1360,7 @@
     <t>PDG0021221</t>
   </si>
   <si>
-    <t>0.89103</t>
+    <t>0.96688</t>
   </si>
   <si>
     <t>nferrarodavis@statestreet.com</t>
@@ -1378,7 +1378,7 @@
     <t>PDG0010140</t>
   </si>
   <si>
-    <t>0.79685</t>
+    <t>0.94768</t>
   </si>
   <si>
     <t>niclas.roken@alcur.se</t>
@@ -1390,10 +1390,10 @@
     <t>pdn0004178</t>
   </si>
   <si>
-    <t>PDG0011360</t>
-  </si>
-  <si>
-    <t>0.44646</t>
+    <t>PDN0004178</t>
+  </si>
+  <si>
+    <t>0.60484</t>
   </si>
   <si>
     <t>nwidjaja@mainstreamgroup.com</t>
@@ -1411,7 +1411,7 @@
     <t>PDG0023174</t>
   </si>
   <si>
-    <t>0.98548</t>
+    <t>0.99367</t>
   </si>
   <si>
     <t>outtra@kneip.com</t>
@@ -1426,10 +1426,10 @@
     <t>pdg0028061</t>
   </si>
   <si>
-    <t>PDG0028061</t>
-  </si>
-  <si>
-    <t>0.41680</t>
+    <t>PDN0001266</t>
+  </si>
+  <si>
+    <t>0.76695</t>
   </si>
   <si>
     <t>daily transmission of cohen_and_steers for 02/05/2019</t>
@@ -1441,10 +1441,10 @@
     <t>pdg0027881</t>
   </si>
   <si>
-    <t>PDG0010881</t>
-  </si>
-  <si>
-    <t>0.39420</t>
+    <t>PDG0017697</t>
+  </si>
+  <si>
+    <t>0.36940</t>
   </si>
   <si>
     <t>pcplu1.pcontrol@bnpparibas.com</t>
@@ -1462,7 +1462,7 @@
     <t>PDG0009566</t>
   </si>
   <si>
-    <t>0.45274</t>
+    <t>0.90834</t>
   </si>
   <si>
     <t>pricerelease@jpmorgan.com</t>
@@ -1486,7 +1486,7 @@
     <t>PDG0011636</t>
   </si>
   <si>
-    <t>0.94932</t>
+    <t>0.97651</t>
   </si>
   <si>
     <t>qiuxinghao@dcginvest.com</t>
@@ -1504,7 +1504,7 @@
     <t>PDN0003542</t>
   </si>
   <si>
-    <t>0.95960</t>
+    <t>0.98427</t>
   </si>
   <si>
     <t>rhutchison@statestreet.com</t>
@@ -1519,10 +1519,10 @@
     <t>pdg0005618</t>
   </si>
   <si>
-    <t>PDG0007808</t>
-  </si>
-  <si>
-    <t>0.33073</t>
+    <t>PDG0007806</t>
+  </si>
+  <si>
+    <t>0.37469</t>
   </si>
   <si>
     <t>richard.oates1@aviva.com</t>
@@ -1537,10 +1537,10 @@
     <t>pdg0020656</t>
   </si>
   <si>
-    <t>PDG0020686</t>
-  </si>
-  <si>
-    <t>0.69413</t>
+    <t>PDG0020656</t>
+  </si>
+  <si>
+    <t>0.81562</t>
   </si>
   <si>
     <t>ridhiman.arora@rbc.com</t>
@@ -1558,7 +1558,7 @@
     <t>PDN0007164</t>
   </si>
   <si>
-    <t>0.99409</t>
+    <t>0.99686</t>
   </si>
   <si>
     <t>rochelle.lee@amp.co.nz</t>
@@ -1576,7 +1576,7 @@
     <t>PDG0020247</t>
   </si>
   <si>
-    <t>0.96681</t>
+    <t>0.99093</t>
   </si>
   <si>
     <t>s.he@impaxam.com</t>
@@ -1594,7 +1594,7 @@
     <t>PDN0007533</t>
   </si>
   <si>
-    <t>0.94918</t>
+    <t>0.94477</t>
   </si>
   <si>
     <t>sophia.li@morningstar.com</t>
@@ -1612,7 +1612,7 @@
     <t>PDG0024034</t>
   </si>
   <si>
-    <t>0.89992</t>
+    <t>0.95349</t>
   </si>
   <si>
     <t>ssrs@mainstreamgroup.com</t>
@@ -1630,7 +1630,7 @@
     <t>PDG0023079</t>
   </si>
   <si>
-    <t>0.96283</t>
+    <t>0.98742</t>
   </si>
   <si>
     <t>mhor asset management -  australian small cap fund  - imd 07/05/2019</t>
@@ -1642,7 +1642,7 @@
     <t>PDN0004145</t>
   </si>
   <si>
-    <t>0.87118</t>
+    <t>0.93233</t>
   </si>
   <si>
     <t>charter hall maxim property securities fund - imd 09/05/2019</t>
@@ -1654,7 +1654,7 @@
     <t>PDG0026296</t>
   </si>
   <si>
-    <t>0.99386</t>
+    <t>0.99280</t>
   </si>
   <si>
     <t>tax.fund.administration@bbh.com</t>
@@ -1672,7 +1672,7 @@
     <t>PDN0002876</t>
   </si>
   <si>
-    <t>0.97977</t>
+    <t>0.99450</t>
   </si>
   <si>
     <t>tomasz.lasota@citi.com</t>
@@ -1690,7 +1690,7 @@
     <t>PDG0008406</t>
   </si>
   <si>
-    <t>0.85834</t>
+    <t>0.80475</t>
   </si>
   <si>
     <t>tomasz.t.grynfelder@jpmorgan.com</t>
@@ -1708,7 +1708,7 @@
     <t>PDG0012408</t>
   </si>
   <si>
-    <t>0.97358</t>
+    <t>0.98046</t>
   </si>
   <si>
     <t>tui@ivinvestors.com</t>
@@ -1726,7 +1726,7 @@
     <t>PDG0016375</t>
   </si>
   <si>
-    <t>0.90839</t>
+    <t>0.58719</t>
   </si>
   <si>
     <t>vpemberton@baronfunds.com</t>
@@ -1744,7 +1744,7 @@
     <t>PDG0013751</t>
   </si>
   <si>
-    <t>0.98923</t>
+    <t>0.96249</t>
   </si>
   <si>
     <t>wade.west@maitlandgroup.co.za</t>
@@ -1759,10 +1759,10 @@
     <t>pdg0028030</t>
   </si>
   <si>
-    <t>PDG0028030</t>
-  </si>
-  <si>
-    <t>0.34918</t>
+    <t>PDG0018657</t>
+  </si>
+  <si>
+    <t>0.88784</t>
   </si>
   <si>
     <t>wilsonwhchow@hsbc.com.hk</t>
@@ -1780,7 +1780,7 @@
     <t>PDN0000059</t>
   </si>
   <si>
-    <t>0.99436</t>
+    <t>0.99740</t>
   </si>
   <si>
     <t>zurich-cag3@statestreet.com</t>
@@ -1854,7 +1854,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2155,15 +2166,17 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2358,7 +2371,7 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>53</v>
@@ -2473,7 +2486,7 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>83</v>
@@ -2634,7 +2647,7 @@
         <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>125</v>
@@ -3071,7 +3084,7 @@
         <v>238</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
         <v>239</v>
@@ -3186,7 +3199,7 @@
         <v>268</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -3442,105 +3455,105 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" t="s">
         <v>334</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>335</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>336</v>
-      </c>
-      <c r="G56" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>337</v>
+      </c>
+      <c r="B57" t="s">
         <v>338</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
         <v>339</v>
       </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>340</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>341</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>342</v>
-      </c>
-      <c r="G57" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>343</v>
+      </c>
+      <c r="B58" t="s">
         <v>344</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
         <v>345</v>
       </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>346</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>347</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>348</v>
-      </c>
-      <c r="G58" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>349</v>
+      </c>
+      <c r="B59" t="s">
         <v>350</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
         <v>351</v>
       </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>352</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>353</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>354</v>
-      </c>
-      <c r="G59" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" t="s">
         <v>356</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
         <v>357</v>
       </c>
-      <c r="C60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>358</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>359</v>
-      </c>
-      <c r="F60" t="s">
-        <v>360</v>
       </c>
       <c r="G60" t="s">
         <v>56</v>
@@ -3548,948 +3561,954 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>360</v>
+      </c>
+      <c r="B61" t="s">
         <v>361</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
         <v>362</v>
       </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>363</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>364</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>365</v>
-      </c>
-      <c r="G61" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>366</v>
+      </c>
+      <c r="B62" t="s">
         <v>367</v>
-      </c>
-      <c r="B62" t="s">
-        <v>368</v>
       </c>
       <c r="C62" t="s">
         <v>22</v>
       </c>
       <c r="D62" t="s">
+        <v>368</v>
+      </c>
+      <c r="E62" t="s">
         <v>369</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>371</v>
-      </c>
-      <c r="G62" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>372</v>
+      </c>
+      <c r="B63" t="s">
         <v>373</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
         <v>374</v>
       </c>
-      <c r="C63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>375</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>376</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>377</v>
-      </c>
-      <c r="G63" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>378</v>
+      </c>
+      <c r="B64" t="s">
         <v>379</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
         <v>380</v>
       </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>381</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>382</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>383</v>
-      </c>
-      <c r="G64" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>384</v>
+      </c>
+      <c r="B65" t="s">
         <v>385</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
         <v>386</v>
       </c>
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>387</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>388</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>389</v>
-      </c>
-      <c r="G65" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>390</v>
+      </c>
+      <c r="B66" t="s">
         <v>391</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
         <v>392</v>
       </c>
-      <c r="C66" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>393</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>394</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>395</v>
-      </c>
-      <c r="G66" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>396</v>
+      </c>
+      <c r="B67" t="s">
         <v>397</v>
-      </c>
-      <c r="B67" t="s">
-        <v>398</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
       </c>
       <c r="D67" t="s">
+        <v>398</v>
+      </c>
+      <c r="E67" t="s">
         <v>399</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>400</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>401</v>
-      </c>
-      <c r="G67" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>402</v>
+      </c>
+      <c r="B68" t="s">
+        <v>397</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
         <v>403</v>
       </c>
-      <c r="B68" t="s">
-        <v>398</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>399</v>
+      </c>
+      <c r="F68" t="s">
         <v>404</v>
       </c>
-      <c r="E68" t="s">
-        <v>400</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>405</v>
-      </c>
-      <c r="G68" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>406</v>
+      </c>
+      <c r="B69" t="s">
         <v>407</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
         <v>408</v>
       </c>
-      <c r="C69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>409</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>410</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>411</v>
-      </c>
-      <c r="G69" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>412</v>
+      </c>
+      <c r="B70" t="s">
         <v>413</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
         <v>414</v>
       </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>415</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>416</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>417</v>
-      </c>
-      <c r="G70" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>418</v>
+      </c>
+      <c r="B71" t="s">
         <v>419</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
         <v>420</v>
       </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>415</v>
+      </c>
+      <c r="F71" t="s">
         <v>421</v>
       </c>
-      <c r="E71" t="s">
-        <v>416</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>422</v>
-      </c>
-      <c r="G71" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>423</v>
+      </c>
+      <c r="B72" t="s">
         <v>424</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
         <v>425</v>
       </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>415</v>
+      </c>
+      <c r="F72" t="s">
         <v>426</v>
       </c>
-      <c r="E72" t="s">
-        <v>416</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>427</v>
-      </c>
-      <c r="G72" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>428</v>
+      </c>
+      <c r="B73" t="s">
         <v>429</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
         <v>430</v>
       </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>415</v>
+      </c>
+      <c r="F73" t="s">
         <v>431</v>
       </c>
-      <c r="E73" t="s">
-        <v>416</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>432</v>
-      </c>
-      <c r="G73" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>433</v>
+      </c>
+      <c r="B74" t="s">
         <v>434</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
         <v>435</v>
       </c>
-      <c r="C74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>415</v>
+      </c>
+      <c r="F74" t="s">
         <v>436</v>
       </c>
-      <c r="E74" t="s">
-        <v>416</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>437</v>
-      </c>
-      <c r="G74" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
         <v>439</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
         <v>440</v>
       </c>
-      <c r="C75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
+        <v>415</v>
+      </c>
+      <c r="F75" t="s">
         <v>441</v>
       </c>
-      <c r="E75" t="s">
-        <v>416</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>442</v>
-      </c>
-      <c r="G75" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>443</v>
+      </c>
+      <c r="B76" t="s">
         <v>444</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
         <v>445</v>
       </c>
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>446</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>447</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>448</v>
-      </c>
-      <c r="G76" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>449</v>
+      </c>
+      <c r="B77" t="s">
         <v>450</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
         <v>451</v>
       </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>452</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>453</v>
       </c>
-      <c r="F77" t="s">
-        <v>454</v>
-      </c>
       <c r="G77" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>454</v>
+      </c>
+      <c r="B78" t="s">
         <v>455</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
         <v>456</v>
       </c>
-      <c r="C78" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>457</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>458</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>459</v>
-      </c>
-      <c r="G78" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>460</v>
+      </c>
+      <c r="B79" t="s">
         <v>461</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
         <v>462</v>
       </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>463</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>464</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>465</v>
-      </c>
-      <c r="G79" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>466</v>
+      </c>
+      <c r="B80" t="s">
         <v>467</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
         <v>468</v>
       </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
+        <v>463</v>
+      </c>
+      <c r="F80" t="s">
         <v>469</v>
       </c>
-      <c r="E80" t="s">
-        <v>464</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>470</v>
-      </c>
-      <c r="G80" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>471</v>
+      </c>
+      <c r="B81" t="s">
         <v>472</v>
-      </c>
-      <c r="B81" t="s">
-        <v>473</v>
       </c>
       <c r="C81" t="s">
         <v>22</v>
       </c>
       <c r="D81" t="s">
+        <v>473</v>
+      </c>
+      <c r="E81" t="s">
         <v>474</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>475</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>476</v>
-      </c>
-      <c r="G81" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>477</v>
+      </c>
+      <c r="B82" t="s">
         <v>478</v>
-      </c>
-      <c r="B82" t="s">
-        <v>479</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
       </c>
       <c r="D82" t="s">
+        <v>479</v>
+      </c>
+      <c r="E82" t="s">
         <v>480</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>481</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>482</v>
-      </c>
-      <c r="G82" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>483</v>
+      </c>
+      <c r="B83" t="s">
+        <v>478</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>479</v>
+      </c>
+      <c r="E83" t="s">
+        <v>480</v>
+      </c>
+      <c r="F83" t="s">
+        <v>481</v>
+      </c>
+      <c r="G83" t="s">
         <v>484</v>
-      </c>
-      <c r="B83" t="s">
-        <v>479</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" t="s">
-        <v>480</v>
-      </c>
-      <c r="E83" t="s">
-        <v>481</v>
-      </c>
-      <c r="F83" t="s">
-        <v>482</v>
-      </c>
-      <c r="G83" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>485</v>
+      </c>
+      <c r="B84" t="s">
         <v>486</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
         <v>487</v>
       </c>
-      <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>488</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>489</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>490</v>
-      </c>
-      <c r="G84" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>491</v>
+      </c>
+      <c r="B85" t="s">
         <v>492</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
         <v>493</v>
       </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>494</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>495</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>496</v>
-      </c>
-      <c r="G85" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>497</v>
+      </c>
+      <c r="B86" t="s">
         <v>498</v>
-      </c>
-      <c r="B86" t="s">
-        <v>499</v>
       </c>
       <c r="C86" t="s">
         <v>22</v>
       </c>
       <c r="D86" t="s">
+        <v>499</v>
+      </c>
+      <c r="E86" t="s">
         <v>500</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>501</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>502</v>
-      </c>
-      <c r="G86" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>503</v>
+      </c>
+      <c r="B87" t="s">
         <v>504</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
         <v>505</v>
       </c>
-      <c r="C87" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>506</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>507</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>508</v>
-      </c>
-      <c r="G87" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>509</v>
+      </c>
+      <c r="B88" t="s">
         <v>510</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
         <v>511</v>
       </c>
-      <c r="C88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>512</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>513</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>514</v>
-      </c>
-      <c r="G88" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>515</v>
+      </c>
+      <c r="B89" t="s">
         <v>516</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
         <v>517</v>
       </c>
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>518</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>519</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>520</v>
-      </c>
-      <c r="G89" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>521</v>
+      </c>
+      <c r="B90" t="s">
         <v>522</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
         <v>523</v>
       </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>524</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>525</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>526</v>
-      </c>
-      <c r="G90" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>527</v>
+      </c>
+      <c r="B91" t="s">
         <v>528</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
         <v>529</v>
       </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>530</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>531</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>532</v>
-      </c>
-      <c r="G91" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>533</v>
+      </c>
+      <c r="B92" t="s">
         <v>534</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
         <v>535</v>
       </c>
-      <c r="C92" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
+        <v>530</v>
+      </c>
+      <c r="F92" t="s">
         <v>536</v>
       </c>
-      <c r="E92" t="s">
-        <v>531</v>
-      </c>
-      <c r="F92" t="s">
-        <v>537</v>
-      </c>
       <c r="G92" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>537</v>
+      </c>
+      <c r="B93" t="s">
         <v>538</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
         <v>539</v>
       </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
+        <v>530</v>
+      </c>
+      <c r="F93" t="s">
         <v>540</v>
       </c>
-      <c r="E93" t="s">
-        <v>531</v>
-      </c>
-      <c r="F93" t="s">
-        <v>541</v>
-      </c>
       <c r="G93" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>541</v>
+      </c>
+      <c r="B94" t="s">
         <v>542</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
         <v>543</v>
       </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>544</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>545</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>546</v>
-      </c>
-      <c r="G94" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>547</v>
+      </c>
+      <c r="B95" t="s">
         <v>548</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
         <v>549</v>
       </c>
-      <c r="C95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>550</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>551</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>552</v>
-      </c>
-      <c r="G95" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>553</v>
+      </c>
+      <c r="B96" t="s">
         <v>554</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
         <v>555</v>
       </c>
-      <c r="C96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>556</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>557</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>558</v>
-      </c>
-      <c r="G96" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>559</v>
+      </c>
+      <c r="B97" t="s">
         <v>560</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
         <v>561</v>
       </c>
-      <c r="C97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>562</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>563</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>564</v>
-      </c>
-      <c r="G97" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>565</v>
+      </c>
+      <c r="B98" t="s">
         <v>566</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
         <v>567</v>
       </c>
-      <c r="C98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>568</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>569</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>570</v>
-      </c>
-      <c r="G98" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>571</v>
+      </c>
+      <c r="B99" t="s">
         <v>572</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
         <v>573</v>
       </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>574</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>575</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>576</v>
-      </c>
-      <c r="G99" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>577</v>
+      </c>
+      <c r="B100" t="s">
         <v>578</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
         <v>579</v>
       </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>580</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>581</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>582</v>
-      </c>
-      <c r="G100" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>583</v>
+      </c>
+      <c r="B101" t="s">
         <v>584</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
         <v>585</v>
       </c>
-      <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>586</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>587</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>588</v>
       </c>
-      <c r="G101" t="s">
-        <v>589</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G101" xr:uid="{CDCC1A7B-E2EA-4F73-8224-21E7CC92751C}"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0.9">
+      <formula>NOT(ISERROR(SEARCH("0.9",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>